--- a/data/kbvreport_export/faktenblatttabellen_2021-08-22.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2021-08-22.xlsx
@@ -402,70 +402,70 @@
     <t xml:space="preserve">Testungen</t>
   </si>
   <si>
-    <t xml:space="preserve">KW 32</t>
+    <t xml:space="preserve">KW 33</t>
   </si>
   <si>
     <t xml:space="preserve">Zahl der PCR-Tests</t>
   </si>
   <si>
-    <t xml:space="preserve">503716</t>
-  </si>
-  <si>
     <t xml:space="preserve">505897</t>
   </si>
   <si>
+    <t xml:space="preserve">615920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positivrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,9 PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testkapazität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1902678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1903662</t>
+  </si>
+  <si>
     <t xml:space="preserve">0 %</t>
   </si>
   <si>
-    <t xml:space="preserve">Positive Tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positivrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,08 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,2 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,12 PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testkapazität</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1906662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1902678</t>
-  </si>
-  <si>
     <t xml:space="preserve">Auslastung</t>
   </si>
   <si>
-    <t xml:space="preserve">26 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">27 %</t>
   </si>
   <si>
-    <t xml:space="preserve">1 PP</t>
+    <t xml:space="preserve">32 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 PP</t>
   </si>
   <si>
     <t xml:space="preserve">R-Wert &amp; 7-Tage-Inzidenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW 33</t>
   </si>
   <si>
     <t xml:space="preserve">Reproduktionszahl R</t>
@@ -2898,21 +2898,21 @@
         <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2931,13 +2931,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -3197,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
